--- a/spreadsheet/sap_checklist.ja.xlsx
+++ b/spreadsheet/sap_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーンのレビュー</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,42 +1095,42 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに対する RBAC モデルの適用</t>
+          <t>ASCS とデータベース クラスタを単一/同じ VM に結合しないでください。</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝播を強制する</t>
+          <t>ロードバランサーでフローティングIPが有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1162,21 +1162,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,42 +1187,42 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory または Active Directory フェデレーション サービス (AD FS) を使用してシングル サインオン (SSO) を実装し、エンド ユーザーが可能な限り SAP アプリケーションに接続できるようにします。</t>
+          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>SuccessFactor を HCM アプリケーションとして使用する場合は、Azure AD への自動ユーザー プロビジョニング機能を活用します。</t>
+          <t>SAP SID ごとに 1 つの近接通信配置グループを使用します。グループは可用性ゾーンまたは Azure リージョンにまたがらない</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1254,25 +1254,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SSO から SAP Netweaver への Fiori、webgui などの Web アプリケーションは、SAML を使用して実装できます。</t>
+          <t>Azure は現在、同じ Linux Pacemaker クラスター内での ASCS と db HA の組み合わせをサポートしていません。それらを個々のクラスターに分割します。ただし、最大 5 つの複数の中央サービス クラスターを VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1304,25 +1300,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,46 +1325,42 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO から SAP GUI への変換は、SAP SSO またはサードパーティ製ソリューションのいずれかを使用して実装できます。</t>
+          <t>ASCS および DB クラスターの前に標準ロードバランサー SKU を使用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>SAP Analytics Cloud、SAP Cloud Platform、SAP Cloud Platform IAS、SAP C4C with Azure ADなどのSSOからSAP SaaSへのアプリケーションは、SAMLを使用して実装できます。</t>
+          <t>HA ペアの両方の VM を可用性セットにデプロイするか、可用性ゾーンのサイズが同じでストレージ構成が同じである必要があります</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1404,25 +1392,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ネイティブデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1454,25 +1438,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>運用データベースのポイントインタイムリカバリを、RTOを満たす任意の時点と時間枠で実行します。ポイントインタイムリカバリには、通常、DBMSレイヤーまたはSAPを介してデータを削除するオペレーターエラーが含まれます。</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1504,25 +1484,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>既存の管理グループポリシーをSAPサブスクリプションに適用する</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの Vnet の CIDR と競合または重複しないようにする必要があります。</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1554,25 +1530,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに組み込み、ルーティングと管理の複雑さを増すのを回避</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、中央サービス クラスター VM を DR サイトにレプリケートするのにも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスタを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1604,25 +1572,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Suscriptionをスケールユニットとして活用し、リソースをスケーリングするには、環境ごとにサブスクリプションを展開することを検討してください。サンドボックス、非製品、製品</t>
+          <t>データを DR サイトに同期するには、Azure Site Recovery ではなく、ネイティブ データベース レプリケーションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1654,25 +1614,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション プロビジョニングの一環としてクォータの増加を確認します (サブスクリプション内で使用可能な VM コアの合計など)。</t>
+          <t>正しい VM SKU とゾーンに対するクォータ要求を行う</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1704,25 +1656,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,46 +1677,42 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開地域内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (: BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミスの SAP (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1804,21 +1744,21 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,42 +1769,42 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>エンド ユーザーが可能な場合は、Azure Active Directory または Active Directory フェデレーション サービス (AD FS) を使用してシングル サインオン (SSO) を実装し、エンド ユーザーが SAP アプリケーションに接続できるようにします。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SuccessFactor を HCM アプリケーションとして使用する場合は、Azure AD への自動ユーザー プロビジョニング機能を活用してください。</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1896,21 +1836,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当ては推奨されません。</t>
+          <t>SAP NetweaverベースのWebアプリケーション(Fiori、webguiなど)へのSSOは、SAMLを使用して実装できます。</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1942,25 +1886,25 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,46 +1915,46 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>ASR を設定するとき DR 側で I.P アドレスを予約することを検討して下さい</t>
+          <t>SAP GUI への SSO は、SAP SSO またはサードパーティソリューションを使用して実装できます。</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトに重複する IP アドレス範囲を使用しないでください。</t>
+          <t>SAP Analytics Cloud、SAP Cloud Platform、SAP Cloud Platform IAS、SAP C4C with Azure AD などの SAP SaaS アプリケーションへの SSO は、SAML を使用して実装できます。</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2042,25 +1986,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>[昇格ネットワーク] が該当するすべての VM で有効になっていることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2092,25 +2036,25 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ローカルおよびグローバル VNet ピアリングは接続性を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続性を確保するために推奨されるアプローチです。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2142,25 +2086,25 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Web アプリケーションファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。もう1つのオプションは、ロードバランサー、またはアプリケーションゲートウェイやサードパーティのソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2192,25 +2136,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーの内部デプロイが、DBMS レイヤーの HA 構成にダイレクト サーバー リターン (DSR) を使用するように設定されていることを確認します。</t>
+          <t>アプリケーションを同じSAPサブスクリプションに緊密に結合して、ルーティングと管理の複雑さを増すのを回避</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2242,16 +2186,25 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールを使用して、インターネットへの Azure アウトバウンド トラフィック、非 HTTP/S インバウンド接続、および東/西トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
+          <t>Suscription をスケール ユニットとして活用し、リソースをスケーリングし、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非本番、本番</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2283,25 +2236,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>SAP WebディスパッチャまたはNetScalerなどのサードパーティサービスをアプリケーションゲートウェイと組み合わせて使用し、SAP Webアプリケーションのリバースプロキシ制限を克服します。</t>
+          <t>サブスクリプション プロビジョニングの一環としてクォータの増加を確認します (サブスクリプション内で使用可能な VM コアの合計など)。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2333,25 +2286,25 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続を Azure リージョン全体でグローバルに保護します。</t>
+          <t>選択した展開リージョン内で必要なサービスと機能が利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2383,25 +2336,25 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのみトラフィックを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2433,25 +2386,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2483,25 +2432,21 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files が SAP デプロイに使用される場合、Azure NetAppFiles の Vnet に存在できるデリゲート サブネットが 1 つだけであることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2533,25 +2478,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSGとアプリケーションセキュリティグループを使用して、アプリケーションサブネット、DBサブネット、WebサブネットなどのSAPアプリケーション層内のトラフィックをマイクロセグメント化します。</t>
+          <t>SAP Solution Manager と Azure Monitor for SAP Solutions を使用して、SAP HANA、高可用性 SUSE クラスター、および SQL システムを監視する</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2583,25 +2524,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベースサーバー間での NVA のデプロイはサポートされていません。</t>
+          <t>SAP チェック用の VM 拡張機能を実行します。SAP 用 VM 拡張機能は、仮想マシンの割り当てられたマネージド ID を使用して、VM の監視データと構成データにアクセスします。</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2633,25 +2566,25 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション層と SAP DBMS の配置はサポートされていません。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護します。HANA データベースに Azure ネットアップ ファイル (ANF) をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用してアプリケーション整合性スナップショットを作成します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>SAP Solution Manager と Azure Monitor for SAP Solutions を使用して、SAP HANA、高可用性 SUSE クラスタ、および SQL システムを監視します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2759,17 +2716,25 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>SAP チェック用の VM 拡張機能を実行します。SAP 用 VM 拡張機能は、仮想マシンの割り当てられた管理対象 ID を使用して、VM の監視および構成データにアクセスします。</t>
+          <t>ネットワーク監視接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間のメトリックを監視したり、Azure Monitor でネットワーク待機時間の測定値を収集して表示したりします。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2801,25 +2766,25 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
+          <t>SAP ランドスケープ管理 (LaMa) を使用して、SAP Basis オペレーションを最適化および管理します。Azure 用 SAP LaMa コネクタを使用して、SAP システムを再配置、コピー、複製、および更新します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2851,25 +2816,25 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure Backup サービスで HANA データベースを保護します。HANA データベースに Azure NetApp Files (ANF) をデプロイする場合は、Azure Application Consistent Snapshot ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンの待機時間テストを実行して、SAP on Azure デプロイの待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2901,25 +2866,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>Microsoft Sentinel を使用して SAP の脅威保護を実装します。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2951,25 +2911,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク監視接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間のメトリックを監視したり、Azure Monitor でネットワーク待機時間の測定値を収集して表示したりします。</t>
+          <t>ポリシーを使用して更新管理の構成を適用すると、すべての VM がパッチ管理体制に含まれ、アプリケーション チームが VM のパッチ展開を管理でき、中央 IT 部門にすべての VM にわたる可視性と適用機能が提供されます。</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3001,25 +2957,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>SAP ランドスケープ管理 (LaMa) を使用して、SAP ベーシスオペレーションを最適化および管理します。Azure 用 SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、および更新を行います。</t>
+          <t>VM の実行中の SAP ワークロードの VM インサイトを有効にします。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3051,25 +3003,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン展開の前に Azure アベイラビリティーゾーンの待機時間テストを実行して、Azure デプロイ上の SAP の低待機時間ゾーンを選択します。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3101,20 +3048,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Sentinel を使用して SAP の脅威保護を実装します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3146,13 +3093,13 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ポリシーを使用してパッチ管理の構成を適用すると、すべての VM がパッチ管理レジメンに含まれ、アプリケーション チームが VM のパッチ展開を管理できるようになり、すべての VM にわたる可視性と適用機能が中央 IT に提供されます。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3192,21 +3139,25 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VM で実行中の SAP ワークロードの VM インサイトを有効にします。</t>
+          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにわたる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3238,21 +3189,25 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを活用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なのは、発生したコストを可視化することです。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当ては推奨されません。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3284,20 +3239,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ASR を設定するときに、DR 側で I.P アドレスを予約することを検討してください。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3329,21 +3289,25 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,41 +3318,46 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>デプロイが成功したら Azure リソースをロックして、承認されていない変更から保護することをお勧めします。</t>
+          <t>アクセラレートされたネットワークが、該当するすべての VM に対して有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3420,20 +3389,25 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3465,20 +3439,25 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>既存の要件、規制およびコンプライアンスの制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します。</t>
+          <t>SAP Web Appsのリバースプロキシ制限を克服するために、必要に応じてSAP WebディスパッチャーまたはNetScalerなどのサードパーティサービスをアプリケーションゲートウェイと組み合わせて使用します。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3510,20 +3489,25 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3555,20 +3539,25 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスでSAP管理者カスタムロールを委任します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3600,20 +3589,25 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS 用のセキュア ネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、トラフィックがインターネットに公開されたときにトラフィックをスキャンします。別のオプションは、ロード バランサー、または Application Gateway やサード パーティ製ソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3645,20 +3639,25 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 では、SAP NetWeaver、SAP HANA、SAP Cloud Platform などのさまざまな SAP アプリケーションおよびプラットフォームに SSO を提供することもできます。</t>
+          <t>Azure ロード バランサーの内部デプロイが、DBMS レイヤーの HA 構成にダイレクト サーバーリターン (DSR) を使用するように設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3690,20 +3689,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティングシステムを強化してください。</t>
+          <t>SAP のデプロイに Azure NetApp Files を使用する場合は、Azure NetAppFiles の Vnet に存在できるデリゲート サブネットが 1 つだけであることを確認します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3735,21 +3730,25 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、SAP アプリケーション レイヤー内のトラフィック (アプリ サブネット、DB サブネット、Web サブネットなど) をマイクロセグメント化します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3781,21 +3780,25 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
+          <t>SAP アプリケーションと SAP データベース サーバーの間に NVA をデプロイすることはサポートされていません。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3827,21 +3830,25 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3873,20 +3880,16 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,42 +3900,38 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します。</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を得るには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,18 +3952,18 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure プライベート リンクを構成し、Azure リソース上の SAP を安全に管理および制御します。</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、ネットワーク関連の偶発的な変更を回避する</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>SAP データベースサーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する透過的なデータ暗号化 (TDE) を使用して、データとログ ファイルをセキュリティで保護し、バックアップも暗号化されていることを確認します。</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure プライベート リンクを構成して、SAP on Azure リソースを安全に管理および制御します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4010,7 +4009,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は既定で有効になっています。</t>
+          <t>SAP データベース サーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する透過的なデータ暗号化 (TDE) を使用してデータとログ ファイルをセキュリティで保護し、バックアップも暗号化されていることを確認します。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4056,7 +4055,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure ストレージの暗号化は既定で有効になっています</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4102,7 +4101,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4148,7 +4147,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>ASCS とデータベース クラスタを単一/同一の VM に結合しない</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4194,13 +4193,13 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,34 +4218,34 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>フローティングIPがロードバランサーで有効になっていることを確認します</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>同じ可用性セット内で異なる役割のサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>承認されていない変更から保護するために、デプロイが成功した後に Azure リソースをロックすることをお勧めします。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4286,13 +4285,13 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接通信配置グループを使用します。グループがアベイラビリティーゾーンまたは Azure リージョンにまたがっていない</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4332,13 +4331,13 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure では現在、同じ Linux ペースメーカー クラスター内での ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数の中央サービス クラスターを 1 組の VM に結合できます。</t>
+          <t>既存の要件、規制およびコンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4378,13 +4377,13 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>ASCS および DB クラスタの前で標準ロード バランサー SKU を使用する</t>
+          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4424,13 +4423,13 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンが同じサイズで同じストレージ構成を持つ必要があります。</t>
+          <t>SAP 管理者のカスタム ロールにジャストインタイム アクセスを委任します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4470,13 +4469,13 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ・データベース・レプリケーション・テクノロジーを使用して、HA ペアのデータベースを同期する必要があります。</t>
+          <t>サードパーティのセキュリティ製品を、DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS 用のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4516,13 +4515,13 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>運用データベースのポイント イン タイム リカバリを、RTO を満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAP経由でデータを削除するオペレータ・エラーが含まれます。</t>
+          <t>SAML 2.0 を搭載した Azure Active Directory (Azure AD) は、SAP NetWeaver、SAP HANA、SAP Cloud Platform などのさまざまな SAP アプリケーションやプラットフォームに SSO を提供することもできます。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4562,13 +4561,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの Vnet の CIDR と競合したり重複したりしてはなりません。</t>
+          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティング システムを強化してください。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>01b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、中央サービスのクラスター VM を DR サイトにレプリケートする際にも役立ちます。DR を呼び出すときは、DR サイトで Linux ペースメーカー クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ データベース レプリケーションは、Azure サイトの回復ではなく、DR サイトにデータを同期するために使用する必要があります。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,10 +4784,14 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>チェクリストたち</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>樹液</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10897,12 +11718,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">

--- a/spreadsheet/sap_checklist.ja.xlsx
+++ b/spreadsheet/sap_checklist.ja.xlsx
@@ -977,7 +977,7 @@
     <row r="4" ht="17.25" customFormat="1" customHeight="1" s="5">
       <c r="A4" s="14" t="inlineStr">
         <is>
-          <t>Azure ランディング ゾーンのレビュー</t>
+          <t>Azure Landing Zone Review</t>
         </is>
       </c>
       <c r="B4" s="4" t="n"/>
@@ -1095,42 +1095,42 @@
     <row r="8" ht="16.5" customHeight="1" s="13">
       <c r="A8" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B8" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C8" s="22" t="inlineStr">
         <is>
-          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに対する RBAC モデルの適用</t>
+          <t>ASCS とデータベース クラスタを単一/同じ VM に結合しないでください。</t>
         </is>
       </c>
       <c r="D8" s="22" t="n"/>
       <c r="E8" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G8" s="22" t="n"/>
-      <c r="H8" s="16" t="n"/>
-      <c r="I8" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H8" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+        </is>
+      </c>
+      <c r="I8" s="16" t="n"/>
       <c r="J8" s="23" t="n"/>
       <c r="K8" s="23" t="n"/>
       <c r="L8" s="26" t="inlineStr">
         <is>
-          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
+          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
         </is>
       </c>
       <c r="M8" s="26" t="n"/>
@@ -1141,17 +1141,17 @@
     <row r="9" ht="16.5" customHeight="1" s="13">
       <c r="A9" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B9" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C9" s="22" t="inlineStr">
         <is>
-          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミス (IaaS を含む) に ID を転送するための原則の伝播を強制する</t>
+          <t>ロードバランサーでフローティングIPが有効になっていることを確認します</t>
         </is>
       </c>
       <c r="D9" s="22" t="n"/>
@@ -1162,21 +1162,21 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G9" s="22" t="n"/>
-      <c r="H9" s="16" t="n"/>
-      <c r="I9" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
-        </is>
-      </c>
+      <c r="H9" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+        </is>
+      </c>
+      <c r="I9" s="16" t="n"/>
       <c r="J9" s="23" t="n"/>
       <c r="K9" s="23" t="n"/>
       <c r="L9" s="26" t="inlineStr">
         <is>
-          <t>45911475-e39e-4530-accc-d979366bcda2</t>
+          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
         </is>
       </c>
       <c r="M9" s="26" t="n"/>
@@ -1187,42 +1187,42 @@
     <row r="10" ht="16.5" customHeight="1" s="13">
       <c r="A10" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B10" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C10" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory または Active Directory フェデレーション サービス (AD FS) を使用してシングル サインオン (SSO) を実装し、エンド ユーザーが可能な限り SAP アプリケーションに接続できるようにします。</t>
+          <t>同じ可用性セット内に異なるロールのサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
         </is>
       </c>
       <c r="D10" s="22" t="n"/>
       <c r="E10" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G10" s="22" t="n"/>
-      <c r="H10" s="16" t="n"/>
-      <c r="I10" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
-        </is>
-      </c>
+      <c r="H10" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I10" s="16" t="n"/>
       <c r="J10" s="23" t="n"/>
       <c r="K10" s="24" t="n"/>
       <c r="L10" s="26" t="inlineStr">
         <is>
-          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
+          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
         </is>
       </c>
       <c r="M10" s="26" t="n"/>
@@ -1233,17 +1233,17 @@
     <row r="11" ht="16.5" customHeight="1" s="13">
       <c r="A11" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B11" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="22" t="inlineStr">
         <is>
-          <t>SuccessFactor を HCM アプリケーションとして使用する場合は、Azure AD への自動ユーザー プロビジョニング機能を活用します。</t>
+          <t>SAP SID ごとに 1 つの近接通信配置グループを使用します。グループは可用性ゾーンまたは Azure リージョンにまたがらない</t>
         </is>
       </c>
       <c r="D11" s="22" t="n"/>
@@ -1254,25 +1254,21 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G11" s="22" t="n"/>
       <c r="H11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
-        </is>
-      </c>
-      <c r="I11" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
+        </is>
+      </c>
+      <c r="I11" s="16" t="n"/>
       <c r="J11" s="23" t="n"/>
       <c r="K11" s="23" t="n"/>
       <c r="L11" s="26" t="inlineStr">
         <is>
-          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
+          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
         </is>
       </c>
       <c r="M11" s="26" t="n"/>
@@ -1283,17 +1279,17 @@
     <row r="12" ht="16.5" customHeight="1" s="13">
       <c r="A12" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B12" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C12" s="22" t="inlineStr">
         <is>
-          <t>SSO から SAP Netweaver への Fiori、webgui などの Web アプリケーションは、SAML を使用して実装できます。</t>
+          <t>Azure は現在、同じ Linux Pacemaker クラスター内での ASCS と db HA の組み合わせをサポートしていません。それらを個々のクラスターに分割します。ただし、最大 5 つの複数の中央サービス クラスターを VM のペアに結合できます。</t>
         </is>
       </c>
       <c r="D12" s="22" t="n"/>
@@ -1304,25 +1300,21 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G12" s="22" t="n"/>
       <c r="H12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
-        </is>
-      </c>
-      <c r="I12" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I12" s="16" t="n"/>
       <c r="J12" s="23" t="n"/>
       <c r="K12" s="23" t="n"/>
       <c r="L12" s="26" t="inlineStr">
         <is>
-          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
+          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
         </is>
       </c>
       <c r="M12" s="26" t="n"/>
@@ -1333,46 +1325,42 @@
     <row r="13" ht="16.5" customHeight="1" s="13">
       <c r="A13" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B13" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C13" s="22" t="inlineStr">
         <is>
-          <t>SSO から SAP GUI への変換は、SAP SSO またはサードパーティ製ソリューションのいずれかを使用して実装できます。</t>
+          <t>ASCS および DB クラスターの前に標準ロードバランサー SKU を使用する</t>
         </is>
       </c>
       <c r="D13" s="22" t="n"/>
       <c r="E13" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G13" s="22" t="n"/>
       <c r="H13" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
-        </is>
-      </c>
-      <c r="I13" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I13" s="16" t="n"/>
       <c r="J13" s="23" t="n"/>
       <c r="K13" s="23" t="n"/>
       <c r="L13" s="26" t="inlineStr">
         <is>
-          <t>3686af46-791f-4893-9ada-43324e138115</t>
+          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
         </is>
       </c>
       <c r="M13" s="26" t="n"/>
@@ -1383,17 +1371,17 @@
     <row r="14" ht="16.5" customHeight="1" s="13">
       <c r="A14" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B14" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C14" s="22" t="inlineStr">
         <is>
-          <t>SAP Analytics Cloud、SAP Cloud Platform、SAP Cloud Platform IAS、SAP C4C with Azure ADなどのSSOからSAP SaaSへのアプリケーションは、SAMLを使用して実装できます。</t>
+          <t>HA ペアの両方の VM を可用性セットにデプロイするか、可用性ゾーンのサイズが同じでストレージ構成が同じである必要があります</t>
         </is>
       </c>
       <c r="D14" s="22" t="n"/>
@@ -1404,25 +1392,21 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
-        </is>
-      </c>
-      <c r="I14" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
-        </is>
-      </c>
+          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+        </is>
+      </c>
+      <c r="I14" s="16" t="n"/>
       <c r="J14" s="23" t="n"/>
       <c r="K14" s="23" t="n"/>
       <c r="L14" s="26" t="inlineStr">
         <is>
-          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
+          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
         </is>
       </c>
       <c r="M14" s="26" t="n"/>
@@ -1433,17 +1417,17 @@
     <row r="15" ht="16.5" customHeight="1" s="13">
       <c r="A15" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B15" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C15" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ネイティブデータベースレプリケーションテクノロジーを使用して、HAペアでデータベースを同期する必要があります。</t>
         </is>
       </c>
       <c r="D15" s="22" t="n"/>
@@ -1454,25 +1438,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G15" s="22" t="n"/>
       <c r="H15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
-        </is>
-      </c>
-      <c r="I15" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I15" s="16" t="n"/>
       <c r="J15" s="23" t="n"/>
       <c r="K15" s="23" t="n"/>
       <c r="L15" s="26" t="inlineStr">
         <is>
-          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
+          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
         </is>
       </c>
       <c r="M15" s="26" t="n"/>
@@ -1483,17 +1463,17 @@
     <row r="16" ht="16.5" customHeight="1" s="13">
       <c r="A16" s="22" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B16" s="22" t="inlineStr">
         <is>
-          <t>同一性</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C16" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>運用データベースのポイントインタイムリカバリを、RTOを満たす任意の時点と時間枠で実行します。ポイントインタイムリカバリには、通常、DBMSレイヤーまたはSAPを介してデータを削除するオペレーターエラーが含まれます。</t>
         </is>
       </c>
       <c r="D16" s="22" t="n"/>
@@ -1504,25 +1484,21 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G16" s="22" t="n"/>
       <c r="H16" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
-        </is>
-      </c>
-      <c r="I16" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
+      <c r="I16" s="16" t="n"/>
       <c r="J16" s="23" t="n"/>
       <c r="K16" s="23" t="n"/>
       <c r="L16" s="26" t="inlineStr">
         <is>
-          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
+          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
         </is>
       </c>
       <c r="M16" s="26" t="n"/>
@@ -1533,17 +1509,17 @@
     <row r="17" ht="16.5" customHeight="1" s="13">
       <c r="A17" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B17" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C17" s="22" t="inlineStr">
         <is>
-          <t>既存の管理グループポリシーをSAPサブスクリプションに適用する</t>
+          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの Vnet の CIDR と競合または重複しないようにする必要があります。</t>
         </is>
       </c>
       <c r="D17" s="22" t="n"/>
@@ -1554,25 +1530,17 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G17" s="22" t="n"/>
-      <c r="H17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I17" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
-        </is>
-      </c>
+      <c r="H17" s="16" t="n"/>
+      <c r="I17" s="16" t="n"/>
       <c r="J17" s="23" t="n"/>
       <c r="K17" s="23" t="n"/>
       <c r="L17" s="26" t="inlineStr">
         <is>
-          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
+          <t>81b12318-1a54-4174-8583-3fb4ae3c2df7</t>
         </is>
       </c>
       <c r="M17" s="26" t="n"/>
@@ -1583,17 +1551,17 @@
     <row r="18" ht="16.5" customHeight="1" s="13">
       <c r="A18" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B18" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C18" s="22" t="inlineStr">
         <is>
-          <t>緊密に結合されたアプリケーションを同じSAPサブスクリプションに組み込み、ルーティングと管理の複雑さを増すのを回避</t>
+          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、中央サービス クラスター VM を DR サイトにレプリケートするのにも役立ちます。DR を呼び出すときは、DR サイトで Linux Pacemaker クラスタを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
         </is>
       </c>
       <c r="D18" s="22" t="n"/>
@@ -1604,25 +1572,17 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G18" s="22" t="n"/>
-      <c r="H18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
-        </is>
-      </c>
-      <c r="I18" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
-        </is>
-      </c>
+      <c r="H18" s="16" t="n"/>
+      <c r="I18" s="16" t="n"/>
       <c r="J18" s="23" t="n"/>
       <c r="K18" s="23" t="n"/>
       <c r="L18" s="26" t="inlineStr">
         <is>
-          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
+          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
         </is>
       </c>
       <c r="M18" s="26" t="n"/>
@@ -1633,17 +1593,17 @@
     <row r="19" ht="16.5" customHeight="1" s="13">
       <c r="A19" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ビジネス継続性と災害復旧</t>
         </is>
       </c>
       <c r="B19" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C19" s="22" t="inlineStr">
         <is>
-          <t>Suscriptionをスケールユニットとして活用し、リソースをスケーリングするには、環境ごとにサブスクリプションを展開することを検討してください。サンドボックス、非製品、製品</t>
+          <t>データを DR サイトに同期するには、Azure Site Recovery ではなく、ネイティブ データベース レプリケーションを使用する必要があります。</t>
         </is>
       </c>
       <c r="D19" s="22" t="n"/>
@@ -1654,25 +1614,17 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G19" s="22" t="n"/>
-      <c r="H19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I19" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H19" s="16" t="n"/>
+      <c r="I19" s="16" t="n"/>
       <c r="J19" s="23" t="n"/>
       <c r="K19" s="23" t="n"/>
       <c r="L19" s="26" t="inlineStr">
         <is>
-          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
+          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
         </is>
       </c>
       <c r="M19" s="26" t="n"/>
@@ -1683,17 +1635,17 @@
     <row r="20" ht="16.5" customHeight="1" s="13">
       <c r="A20" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>計算する</t>
         </is>
       </c>
       <c r="B20" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C20" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション プロビジョニングの一環としてクォータの増加を確認します (サブスクリプション内で使用可能な VM コアの合計など)。</t>
+          <t>正しい VM SKU とゾーンに対するクォータ要求を行う</t>
         </is>
       </c>
       <c r="D20" s="22" t="n"/>
@@ -1704,25 +1656,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G20" s="22" t="n"/>
-      <c r="H20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I20" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
-        </is>
-      </c>
+      <c r="H20" s="16" t="n"/>
+      <c r="I20" s="16" t="n"/>
       <c r="J20" s="23" t="n"/>
       <c r="K20" s="23" t="n"/>
       <c r="L20" s="26" t="inlineStr">
         <is>
-          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
+          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
         </is>
       </c>
       <c r="M20" s="26" t="n"/>
@@ -1733,46 +1677,42 @@
     <row r="21" ht="16.5" customHeight="1" s="13">
       <c r="A21" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B21" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C21" s="22" t="inlineStr">
         <is>
-          <t>必要なサービスと機能が、選択した展開地域内で利用可能であることを確認します。ANF、ゾーンなど</t>
+          <t>管理グループ、サブスクリプション、リソース グループ、およびリソースに RBAC モデルを適用する</t>
         </is>
       </c>
       <c r="D21" s="22" t="n"/>
       <c r="E21" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G21" s="22" t="n"/>
-      <c r="H21" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
+      <c r="H21" s="16" t="n"/>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
       <c r="K21" s="23" t="n"/>
       <c r="L21" s="26" t="inlineStr">
         <is>
-          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
+          <t>fda1dbf3-dc95-4d48-a7c7-91dca0f6c565</t>
         </is>
       </c>
       <c r="M21" s="26" t="n"/>
@@ -1783,17 +1723,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (: BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
+          <t>クラウド コネクタを介して SAP クラウド アプリケーションからオンプレミスの SAP (IaaS を含む) に ID を転送するための原則の伝達を適用する</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1804,21 +1744,21 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G22" s="22" t="n"/>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="n"/>
+      <c r="H22" s="16" t="n"/>
+      <c r="I22" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/plan-implement-administer-conditional-access/</t>
+        </is>
+      </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
+          <t>45911475-e39e-4530-accc-d979366bcda2</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1829,42 +1769,42 @@
     <row r="23" ht="16.5" customHeight="1" s="13">
       <c r="A23" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B23" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>エンド ユーザーが可能な場合は、Azure Active Directory または Active Directory フェデレーション サービス (AD FS) を使用してシングル サインオン (SSO) を実装し、エンド ユーザーが SAP アプリケーションに接続できるようにします。</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
       <c r="E23" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G23" s="22" t="n"/>
-      <c r="H23" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I23" s="16" t="n"/>
+      <c r="H23" s="16" t="n"/>
+      <c r="I23" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+        </is>
+      </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
+          <t>750ab1ab-039d-495d-94c7-c8929cb107d5</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1875,17 +1815,17 @@
     <row r="24" ht="16.5" customHeight="1" s="13">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>管理グループとサブスクリプション</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B24" s="22" t="inlineStr">
         <is>
-          <t>サブスクリプション</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>SuccessFactor を HCM アプリケーションとして使用する場合は、Azure AD への自動ユーザー プロビジョニング機能を活用してください。</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1896,21 +1836,25 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
-        </is>
-      </c>
-      <c r="I24" s="16" t="n"/>
+          <t>https://docs.microsoft.com/en-gb/azure/active-directory/saas-apps/sap-successfactors-inbound-provisioning-cloud-only-tutorial</t>
+        </is>
+      </c>
+      <c r="I24" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+        </is>
+      </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
+          <t>325ae525-ba34-4d46-a5e2-213ace7bb122</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1921,17 +1865,17 @@
     <row r="25" ht="16.5" customHeight="1" s="13">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B25" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当ては推奨されません。</t>
+          <t>SAP NetweaverベースのWebアプリケーション(Fiori、webguiなど)へのSSOは、SAMLを使用して実装できます。</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1942,25 +1886,25 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory/privileged-identity-management/pim-configure</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-ad-privileged-identity-management/</t>
         </is>
       </c>
       <c r="J25" s="23" t="n"/>
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
+          <t>f7c95f06-e154-4e3a-a359-2829e6e20617</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -1971,46 +1915,46 @@
     <row r="26" ht="16.5" customHeight="1" s="13">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B26" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>ASR を設定するとき DR 側で I.P アドレスを予約することを検討して下さい</t>
+          <t>SAP GUI への SSO は、SAP SSO またはサードパーティソリューションを使用して実装できます。</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
       <c r="E26" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/modules/explore-basic-services-identity-types/</t>
         </is>
       </c>
       <c r="J26" s="23" t="n"/>
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
+          <t>3686af46-791f-4893-9ada-43324e138115</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2021,17 +1965,17 @@
     <row r="27" ht="16.5" customHeight="1" s="13">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B27" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>運用サイトと DR サイトに重複する IP アドレス範囲を使用しないでください。</t>
+          <t>SAP Analytics Cloud、SAP Cloud Platform、SAP Cloud Platform IAS、SAP C4C with Azure AD などの SAP SaaS アプリケーションへの SSO は、SAML を使用して実装できます。</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2042,25 +1986,25 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/active-directory/fundamentals/active-directory-groups-create-azure-portal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
+          <t>23181aa4-1742-4694-9ff8-ae7d7d474317</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2071,17 +2015,17 @@
     <row r="28" ht="16.5" customHeight="1" s="13">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B28" s="22" t="inlineStr">
         <is>
-          <t>IPプラン</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>[昇格ネットワーク] が該当するすべての VM で有効になっていることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2092,25 +2036,25 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/identity-access</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/modules/create-custom-azure-roles-with-rbac/</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
+          <t>6c8bcbf4-5bbe-4609-b8a0-3e97778424d6</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2121,17 +2065,17 @@
     <row r="29" ht="16.5" customHeight="1" s="13">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="B29" s="22" t="inlineStr">
         <is>
-          <t>ハイブリッド</t>
+          <t>同一性</t>
         </is>
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>ローカルおよびグローバル VNet ピアリングは接続性を提供し、複数の Azure リージョンにまたがる SAP デプロイのランディング ゾーン間の接続性を確保するために推奨されるアプローチです。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2142,25 +2086,25 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://azure.microsoft.com/resources/achieving-compliant-data-residency-and-security-with-azure/</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
+          <t>16785d6f-a96c-496a-b885-18f482734c88</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2171,17 +2115,17 @@
     <row r="30" ht="16.5" customHeight="1" s="13">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B30" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Web アプリケーションファイアウォールを使用して、インターネットに公開されているトラフィックをスキャンします。もう1つのオプションは、ロードバランサー、またはアプリケーションゲートウェイやサードパーティのソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
+          <t>既存の管理グループ ポリシーを SAP サブスクリプションに適用する</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
@@ -2192,25 +2136,25 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G30" s="22" t="n"/>
       <c r="H30" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J30" s="23" t="n"/>
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
+          <t>6ba28021-4591-4147-9e39-e5309cccd979</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2221,17 +2165,17 @@
     <row r="31" ht="16.5" customHeight="1" s="13">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B31" s="22" t="inlineStr">
         <is>
-          <t>パース</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Azure ロード バランサーの内部デプロイが、DBMS レイヤーの HA 構成にダイレクト サーバー リターン (DSR) を使用するように設定されていることを確認します。</t>
+          <t>アプリケーションを同じSAPサブスクリプションに緊密に結合して、ルーティングと管理の複雑さを増すのを回避</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
@@ -2242,16 +2186,25 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G31" s="22" t="n"/>
-      <c r="H31" s="16" t="n"/>
+      <c r="H31" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
+          <t>366bcda2-750a-4b1a-a039-d95d54c7c892</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2262,17 +2215,17 @@
     <row r="32" ht="16.5" customHeight="1" s="13">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B32" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Azure ファイアウォールを使用して、インターネットへの Azure アウトバウンド トラフィック、非 HTTP/S インバウンド接続、および東/西トラフィック フィルタリング (組織で必要な場合) を管理します。</t>
+          <t>サブスクリプションをスケール ユニットとして活用し、リソースをスケーリングするには、環境ごとにサブスクリプションをデプロイすることを検討してください。サンドボックス、非本番、本番</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -2283,25 +2236,25 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
+          <t>9cb107d5-325a-4e52-9ba3-4d4685e2213a</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2312,17 +2265,17 @@
     <row r="33" ht="16.5" customHeight="1" s="13">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B33" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>SAP WebディスパッチャまたはNetScalerなどのサードパーティサービスをアプリケーションゲートウェイと組み合わせて使用し、SAP Webアプリケーションのリバースプロキシ制限を克服します。</t>
+          <t>サブスクリプション プロビジョニングの一環としてクォータの増加を確認します (サブスクリプション内で使用可能な VM コアの合計など)。</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2333,25 +2286,25 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
+          <t>ce7bb122-f7c9-45f0-9e15-4e3aa3592829</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2362,17 +2315,17 @@
     <row r="34" ht="16.5" customHeight="1" s="13">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B34" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door ポリシーと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続を Azure リージョン全体でグローバルに保護します。</t>
+          <t>選択した展開リージョン内で必要なサービスと機能が利用可能であることを確認します。ANF、ゾーンなど</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
@@ -2383,25 +2336,25 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
+          <t>e6e20617-3686-4af4-9791-f8935ada4332</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2412,17 +2365,17 @@
     <row r="35" ht="16.5" customHeight="1" s="13">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B35" s="22" t="inlineStr">
         <is>
-          <t>インターネット</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure Front Door からのみトラフィックを受信するように Azure Application Gateway をロックダウンします。</t>
+          <t>Azure リソース タグを活用して、コストの分類とリソースのグループ化 (BillTo、部門 (または部署)、環境 (運用、ステージ、開発)、層 (Web 層、アプリケーション層)、アプリケーション所有者、プロジェクト名)</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
@@ -2433,25 +2386,21 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
-        </is>
-      </c>
-      <c r="I35" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I35" s="16" t="n"/>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
+          <t>4e138115-2318-41aa-9174-26943ff8ae7d</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2462,17 +2411,17 @@
     <row r="36" ht="16.5" customHeight="1" s="13">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B36" s="22" t="inlineStr">
         <is>
-          <t>アプリ配信</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
@@ -2483,25 +2432,21 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
-        </is>
-      </c>
-      <c r="I36" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I36" s="16" t="n"/>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
+          <t>7d474317-6c8b-4cbf-95bb-e609d8a03e97</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2512,17 +2457,17 @@
     <row r="37" ht="16.5" customHeight="1" s="13">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理グループとサブスクリプション</t>
         </is>
       </c>
       <c r="B37" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>サブスクリプション</t>
         </is>
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Azure NetApp Files が SAP デプロイに使用される場合、Azure NetAppFiles の Vnet に存在できるデリゲート サブネットが 1 つだけであることを確認します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2533,25 +2478,21 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
-        </is>
-      </c>
-      <c r="I37" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+        </is>
+      </c>
+      <c r="I37" s="16" t="n"/>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
+          <t>778424d6-1678-45d6-ba96-c96ad88518f4</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2562,17 +2503,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>NSGとアプリケーションセキュリティグループを使用して、アプリケーションサブネット、DBサブネット、WebサブネットなどのSAPアプリケーション層内のトラフィックをマイクロセグメント化します。</t>
+          <t>SAP Solution Manager と Azure Monitor for SAP Solutions を使用して、SAP HANA、高可用性 SUSE クラスター、および SQL システムを監視する</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2583,25 +2524,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
-        </is>
-      </c>
-      <c r="I38" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
-        </is>
-      </c>
+      <c r="H38" s="16" t="n"/>
+      <c r="I38" s="16" t="n"/>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
+          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2612,17 +2545,17 @@
     <row r="39" ht="16.5" customHeight="1" s="13">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B39" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>SAP アプリケーションと SAP データベースサーバー間での NVA のデプロイはサポートされていません。</t>
+          <t>SAP チェック用の VM 拡張機能を実行します。SAP 用 VM 拡張機能は、仮想マシンの割り当てられたマネージド ID を使用して、VM の監視データと構成データにアクセスします。</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2633,25 +2566,25 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G39" s="22" t="n"/>
       <c r="H39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
+          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2662,34 +2595,46 @@
     <row r="40" ht="16.5" customHeight="1" s="13">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B40" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション層と SAP DBMS の配置はサポートされていません。</t>
+          <t>アクセス制御とコンプライアンス レポートに Azure Policy を使用します。Azure Policy には、組織全体の設定を適用して、一貫したポリシー遵守と迅速な違反検出を保証する機能が用意されています。</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
-      <c r="E40" s="22" t="n"/>
+      <c r="E40" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G40" s="22" t="n"/>
-      <c r="H40" s="16" t="n"/>
-      <c r="I40" s="16" t="n"/>
+      <c r="H40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I40" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+        </is>
+      </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
+          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2700,34 +2645,46 @@
     <row r="41" ht="16.5" customHeight="1" s="13">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク トポロジと接続性</t>
+          <t>管理と監視</t>
         </is>
       </c>
       <c r="B41" s="22" t="inlineStr">
         <is>
-          <t>セグメンテーション</t>
+          <t>モニタリング</t>
         </is>
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>SAP アプリケーションで最適なネットワーク待機時間を実現するには、Azure 近接通信配置グループの使用を検討してください。</t>
+          <t>Azure Backup サービスを使用して HANA データベースを保護します。HANA データベースに Azure ネットアップ ファイル (ANF) をデプロイする場合は、Azure アプリケーション整合性スナップショット ツール (AzAcSnap) を使用してアプリケーション整合性スナップショットを作成します。</t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
-      <c r="E41" s="22" t="n"/>
+      <c r="E41" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G41" s="22" t="n"/>
-      <c r="H41" s="16" t="n"/>
-      <c r="I41" s="16" t="n"/>
+      <c r="H41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+        </is>
+      </c>
+      <c r="I41" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+        </is>
+      </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
+          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2748,7 +2705,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>SAP Solution Manager と Azure Monitor for SAP Solutions を使用して、SAP HANA、高可用性 SUSE クラスタ、および SQL システムを監視します。</t>
+          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2759,17 +2716,25 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G42" s="22" t="n"/>
-      <c r="H42" s="16" t="n"/>
-      <c r="I42" s="16" t="n"/>
+      <c r="H42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+        </is>
+      </c>
+      <c r="I42" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+        </is>
+      </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>14591147-5e39-4e53-89cc-cd979366bcda</t>
+          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2790,7 +2755,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>SAP チェック用の VM 拡張機能を実行します。SAP 用 VM 拡張機能は、仮想マシンの割り当てられた管理対象 ID を使用して、VM の監視および構成データにアクセスします。</t>
+          <t>ネットワーク監視接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間のメトリックを監視したり、Azure Monitor でネットワーク待機時間の測定値を収集して表示したりします。</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2801,25 +2766,25 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2750ab1a-b039-4d95-b54c-7c8929cb107d</t>
+          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2840,7 +2805,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>アクセス制御とコンプライアンス レポートには Azure Policy を使用します。Azure Policy では、組織全体の設定を適用して、一貫したポリシーの遵守と迅速な違反検出を確保できます。</t>
+          <t>SAP ランドスケープ管理 (LaMa) を使用して、SAP Basis オペレーションを最適化および管理します。Azure 用 SAP LaMa コネクタを使用して、SAP システムを再配置、コピー、複製、および更新します。</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2851,25 +2816,25 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G44" s="22" t="n"/>
       <c r="H44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
         </is>
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>5325ae52-5ba3-44d4-985e-2213ace7bb12</t>
+          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2890,7 +2855,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Azure Backup サービスで HANA データベースを保護します。HANA データベースに Azure NetApp Files (ANF) をデプロイする場合は、Azure Application Consistent Snapshot ツール (AzAcSnap) を使用して、アプリケーション整合性スナップショットを作成します。</t>
+          <t>Azure サブスクリプションごとに、ゾーン デプロイの前に Azure 可用性ゾーンの待機時間テストを実行して、SAP on Azure デプロイの待機時間の短いゾーンを選択します。</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2901,25 +2866,20 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G45" s="22" t="n"/>
       <c r="H45" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2f7c95f0-6e15-44e3-aa35-92829e6e2061</t>
+          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2940,7 +2900,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>プロビジョニングされた Azure インフラストラクチャで SAP HANA の品質チェックを実行して、プロビジョニングされた VM が SAP HANA on Azure のベスト プラクティスに準拠していることを確認します。</t>
+          <t>Microsoft Sentinel を使用して SAP の脅威保護を実装します。</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2951,25 +2911,21 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>73686af4-6791-4f89-95ad-a43324e13811</t>
+          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -2990,7 +2946,7 @@
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>ネットワーク監視接続モニターを使用して、SAP データベースとアプリケーション サーバーの待機時間のメトリックを監視したり、Azure Monitor でネットワーク待機時間の測定値を収集して表示したりします。</t>
+          <t>ポリシーを使用して更新管理の構成を適用すると、すべての VM がパッチ管理体制に含まれ、アプリケーション チームが VM のパッチ展開を管理でき、中央 IT 部門にすべての VM にわたる可視性と適用機能が提供されます。</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3001,25 +2957,21 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
-        </is>
-      </c>
-      <c r="I47" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I47" s="16" t="n"/>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>523181aa-4174-4269-93ff-8ae7d7d47431</t>
+          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3040,7 +2992,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>SAP ランドスケープ管理 (LaMa) を使用して、SAP ベーシスオペレーションを最適化および管理します。Azure 用 SAP LaMa コネクタを使用して、SAP システムの再配置、コピー、複製、および更新を行います。</t>
+          <t>VM の実行中の SAP ワークロードの VM インサイトを有効にします。</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3051,25 +3003,20 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>76c8bcbf-45bb-4e60-ad8a-03e97778424d</t>
+          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3090,7 +3037,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Azure サブスクリプションごとに、ゾーン展開の前に Azure アベイラビリティーゾーンの待機時間テストを実行して、Azure デプロイ上の SAP の低待機時間ゾーンを選択します。</t>
+          <t>Azure のタグ付けを利用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なこととして、発生したコストを可視化できます。</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3101,20 +3048,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G49" s="22" t="n"/>
       <c r="H49" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J49" s="23" t="n"/>
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>616785d6-fa96-4c96-ad88-518f482734c8</t>
+          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3135,7 +3082,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Sentinel を使用して SAP の脅威保護を実装します。</t>
+          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3146,13 +3093,13 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G50" s="22" t="n"/>
       <c r="H50" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="I50" s="16" t="n"/>
@@ -3160,7 +3107,7 @@
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>86ba2802-1459-4114-95e3-9e5309cccd97</t>
+          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3171,17 +3118,17 @@
     <row r="51" ht="16.5" customHeight="1" s="13">
       <c r="A51" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B51" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>アプリ配信</t>
         </is>
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>ポリシーを使用してパッチ管理の構成を適用すると、すべての VM がパッチ管理レジメンに含まれ、アプリケーション チームが VM のパッチ展開を管理できるようになり、すべての VM にわたる可視性と適用機能が中央 IT に提供されます。</t>
+          <t>HTTP/S アプリを安全に配信するには、アプリケーション ゲートウェイ v2 を使用し、WAF 保護とポリシーが有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3192,21 +3139,25 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G51" s="22" t="n"/>
       <c r="H51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I51" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+        </is>
+      </c>
+      <c r="I51" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+        </is>
+      </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>4d116785-d2fa-456c-96ad-48408fe72734</t>
+          <t>5ba34d46-85e2-4213-ace7-bb122f7c95f0</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3217,17 +3168,17 @@
     <row r="52" ht="16.5" customHeight="1" s="13">
       <c r="A52" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B52" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>ハイブリッド</t>
         </is>
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>VM で実行中の SAP ワークロードの VM インサイトを有効にします。</t>
+          <t>ローカルおよびグローバル VNet ピアリングは接続を提供し、複数の Azure リージョンにわたる SAP デプロイのランディング ゾーン間の接続を確保するための推奨されるアプローチです。</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3238,21 +3189,25 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G52" s="22" t="n"/>
       <c r="H52" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
-        </is>
-      </c>
-      <c r="I52" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/networking/</t>
+        </is>
+      </c>
+      <c r="I52" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+        </is>
+      </c>
       <c r="J52" s="23" t="n"/>
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>c486ba28-0dc0-4591-af65-de8e1309cccd</t>
+          <t>a3592829-e6e2-4061-9368-6af46791f893</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3263,17 +3218,17 @@
     <row r="53" ht="16.5" customHeight="1" s="13">
       <c r="A53" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B53" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Azure のタグ付けを活用して、リソースを論理的にグループ化して追跡し、デプロイを自動化し、最も重要なのは、発生したコストを可視化することです。</t>
+          <t>SAP ワークロードを実行している VM へのパブリック I.P 割り当ては推奨されません。</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3284,20 +3239,25 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G53" s="22" t="n"/>
       <c r="H53" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>579266bc-ca27-45fa-a1ab-fe9d55d04c3c</t>
+          <t>82734c88-6ba2-4802-8459-11475e39e530</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3308,17 +3268,17 @@
     <row r="54" ht="16.5" customHeight="1" s="13">
       <c r="A54" s="22" t="inlineStr">
         <is>
-          <t>管理と監視</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B54" s="22" t="inlineStr">
         <is>
-          <t>モニタリング</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ASR を設定するときに、DR 側で I.P アドレスを予約することを検討してください。</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3329,21 +3289,25 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G54" s="22" t="n"/>
       <c r="H54" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
-        </is>
-      </c>
-      <c r="I54" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+        </is>
+      </c>
+      <c r="I54" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+        </is>
+      </c>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>4919cb1b-3d13-425a-b124-ba34df685edd</t>
+          <t>9cccd979-366b-4cda-8750-ab1ab039d95d</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3354,41 +3318,46 @@
     <row r="55" ht="16.5" customHeight="1" s="13">
       <c r="A55" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B55" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault を使用してシークレットと資格情報を保存する</t>
+          <t>運用サイトと DR サイトで重複する IP アドレス範囲を使用しないでください。</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
       <c r="E55" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G55" s="22" t="n"/>
       <c r="H55" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
+          <t>54c7c892-9cb1-407d-9325-ae525ba34d46</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3399,17 +3368,17 @@
     <row r="56" ht="16.5" customHeight="1" s="13">
       <c r="A56" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B56" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>知財プラン</t>
         </is>
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>デプロイが成功したら Azure リソースをロックして、承認されていない変更から保護することをお勧めします。</t>
+          <t>高速ネットワークが、該当するすべての VM に対して有効になっていることを確認します。</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3420,20 +3389,25 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G56" s="22" t="n"/>
       <c r="H56" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J56" s="23" t="n"/>
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
+          <t>85e2213a-ce7b-4b12-8f7c-95f06e154e3a</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3444,17 +3418,17 @@
     <row r="57" ht="16.5" customHeight="1" s="13">
       <c r="A57" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B57" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>論理的な削除ポリシーと削除ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を許可します。</t>
+          <t>Azure Firewall を使用して、インターネットへの Azure 送信トラフィック、HTTP/S 以外の受信接続、および East/West トラフィック フィルター処理 (組織で必要な場合) を管理します。</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3465,20 +3439,25 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
+          <t>d8a03e97-7784-424d-9167-85d6fa96c96a</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3489,17 +3468,17 @@
     <row r="58" ht="16.5" customHeight="1" s="13">
       <c r="A58" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B58" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>既存の要件、規制およびコンプライアンスの制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します。</t>
+          <t>SAP Web アプリのリバースプロキシの制限を克服するために、必要に応じてSAP WebディスパッチャーまたはNetScalerなどのサードパーティサービスをアプリケーションゲートウェイと組み合わせて使用 します。</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3510,20 +3489,25 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
+          <t>d88518f4-8273-44c8-a6ba-280214591147</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3534,17 +3518,17 @@
     <row r="59" ht="16.5" customHeight="1" s="13">
       <c r="A59" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
+          <t>Azure フロント ドアと WAF ポリシーを使用して、ランディング ゾーンへの受信 HTTP/S 接続に対して Azure リージョン間でグローバル保護を提供します。</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3555,20 +3539,25 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
+          <t>5e39e530-9ccc-4d97-a366-bcda2750ab1a</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3579,17 +3568,17 @@
     <row r="60" ht="16.5" customHeight="1" s="13">
       <c r="A60" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B60" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>インターネット</t>
         </is>
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>ジャストインタイムアクセスでSAP管理者カスタムロールを委任します。</t>
+          <t>Azure Front Door と Azure Application Gateway を使用して HTTP/S アプリを保護する場合は、Azure Front Door で WAF ポリシーを使用します。Azure アプリケーション ゲートウェイをロックダウンして、Azure Front Door からのトラフィックのみを受信します。</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3600,20 +3589,25 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
+          <t>b039d95d-54c7-4c89-89cb-107d5325ae52</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3624,17 +3618,17 @@
     <row r="61" ht="16.5" customHeight="1" s="13">
       <c r="A61" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B61" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>サードパーティのセキュリティ製品を DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS 用のセキュア ネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
+          <t>Web アプリケーション ファイアウォールを使用して、トラフィックがインターネットに公開されたときにトラフィックをスキャンします。別のオプションは、ロード バランサー、または Application Gateway やサード パーティ製ソリューションなどのファイアウォール機能が組み込まれているリソースで使用することです。</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3645,20 +3639,25 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
+          <t>5ada4332-4e13-4811-9231-81aa41742694</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3669,17 +3668,17 @@
     <row r="62" ht="16.5" customHeight="1" s="13">
       <c r="A62" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B62" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Azure Active Directory (Azure AD) with SAML 2.0 では、SAP NetWeaver、SAP HANA、SAP Cloud Platform などのさまざまな SAP アプリケーションおよびプラットフォームに SSO を提供することもできます。</t>
+          <t>Azure ロード バランサーの内部デプロイが、DBMS レイヤーの HA 構成にダイレクト サーバーリターン (DSR) を使用するように設定されていることを確認します。</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3690,20 +3689,16 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G62" s="22" t="n"/>
-      <c r="H62" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H62" s="16" t="n"/>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
+          <t>3ff8ae7d-7d47-4431-96c8-bcbf45bbe609</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3714,17 +3709,17 @@
     <row r="63" ht="16.5" customHeight="1" s="13">
       <c r="A63" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B63" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティングシステムを強化してください。</t>
+          <t>SAP のデプロイに Azure NetApp Files を使用する場合は、Azure NetAppFiles の Vnet に存在できるデリゲート サブネットが 1 つだけであることを確認します。</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3735,21 +3730,25 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I63" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+        </is>
+      </c>
+      <c r="I63" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J63" s="23" t="n"/>
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
+          <t>6e154e3a-a359-4282-ae6e-206173686af4</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3760,17 +3759,17 @@
     <row r="64" ht="16.5" customHeight="1" s="13">
       <c r="A64" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B64" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t>プリンシパル暗号化機能については、既定で Microsoft が管理するキーを使用し、必要に応じて顧客管理キーを使用します。</t>
+          <t>NSG とアプリケーション セキュリティ グループを使用して、SAP アプリケーション レイヤー内のトラフィック (アプリ サブネット、DB サブネット、Web サブネットなど) をマイクロセグメント化します。</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3781,21 +3780,25 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+        </is>
+      </c>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
+          <t>6791f893-5ada-4433-84e1-3811523181aa</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3806,17 +3809,17 @@
     <row r="65" ht="16.5" customHeight="1" s="13">
       <c r="A65" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B65" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t>Azure Key Vault は、アプリケーションごとに、リージョンごとの環境ごとに使用します。</t>
+          <t>SAP アプリケーションと SAP データベース サーバーの間に NVA をデプロイすることはサポートされていません。</t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3827,21 +3830,25 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
-      <c r="I65" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+        </is>
+      </c>
+      <c r="I65" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
+          <t>41742694-3ff8-4ae7-b7d4-743176c8bcbf</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3852,17 +3859,17 @@
     <row r="66" ht="16.5" customHeight="1" s="13">
       <c r="A66" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B66" s="22" t="inlineStr">
         <is>
-          <t>秘密</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>ピアリングされていない異なる Azure VNet への SAP アプリケーション レイヤーと SAP DBMS の配置はサポートされていません</t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3873,20 +3880,16 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G66" s="22" t="n"/>
-      <c r="H66" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
-        </is>
-      </c>
+      <c r="H66" s="16" t="n"/>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
+          <t>45bbe609-d8a0-43e9-9778-424d616785d6</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3897,42 +3900,38 @@
     <row r="67" ht="16.5" customHeight="1" s="13">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>セキュリティ、ガバナンス、コンプライアンス</t>
+          <t>ネットワーク トポロジと接続性</t>
         </is>
       </c>
       <c r="B67" s="22" t="inlineStr">
         <is>
-          <t>統治</t>
+          <t>セグメンテーション</t>
         </is>
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、偶発的なネットワーク関連の変更を回避します。</t>
+          <t>SAP アプリケーションで最適なネットワーク待機時間を得るには、Azure 近接通信配置グループの使用を検討してください。</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
       <c r="E67" s="22" t="inlineStr">
         <is>
-          <t>高い</t>
+          <t>中程度</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G67" s="22" t="n"/>
-      <c r="H67" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
-        </is>
-      </c>
+      <c r="H67" s="16" t="n"/>
       <c r="I67" s="16" t="n"/>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
+          <t>fa96c96a-d885-418f-9827-34c886ba2802</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -3953,18 +3952,18 @@
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure プライベート リンクを構成し、Azure リソース上の SAP を安全に管理および制御します。</t>
+          <t>SAP on Azure スポーク サブスクリプションのロールベースのアクセス制御 (RBAC) ロールをカスタマイズして、ネットワーク関連の偶発的な変更を回避する</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
       <c r="E68" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G68" s="22" t="n"/>
@@ -3978,7 +3977,7 @@
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
+          <t>209d490d-a477-4784-84d1-16785d2fa56c</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -3999,7 +3998,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>SAP データベースサーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する透過的なデータ暗号化 (TDE) を使用して、データとログ ファイルをセキュリティで保護し、バックアップも暗号化されていることを確認します。</t>
+          <t>DMZ と NVA を SAP 資産の残りの部分から分離し、Azure プライベート リンクを構成して、SAP on Azure リソースを安全に管理および制御します。</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4010,7 +4009,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G69" s="22" t="n"/>
@@ -4024,7 +4023,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
+          <t>56ad4840-8fe7-4273-9c48-6ba280dc0591</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4045,7 +4044,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Azure Storage の暗号化は既定で有効になっています。</t>
+          <t>SAP データベース サーバーの暗号化には、SAP HANA ネイティブ暗号化テクノロジを使用します。Azure SQL Database を使用している場合は、DBMS プロバイダーが提供する透過的なデータ暗号化 (TDE) を使用してデータとログ ファイルをセキュリティで保護し、バックアップも暗号化されていることを確認します。</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4056,7 +4055,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G70" s="22" t="n"/>
@@ -4070,7 +4069,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
+          <t>cf65de8e-1309-4ccc-b579-266bcca275fa</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4091,7 +4090,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Azure ストレージの暗号化は既定で有効になっています</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4102,7 +4101,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G71" s="22" t="n"/>
@@ -4116,7 +4115,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
+          <t>a1abfe9d-55d0-44c3-a491-9cb1b3d1325a</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4148,7 +4147,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G72" s="22" t="n"/>
@@ -4162,7 +4161,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
+          <t>e124ba34-df68-45ed-bce9-bd3bb0cdb3b5</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4173,17 +4172,17 @@
     <row r="73" ht="16.5" customHeight="1" s="13">
       <c r="A73" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B73" s="22" t="inlineStr">
         <is>
+          <t>統治</t>
+        </is>
+      </c>
+      <c r="C73" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
-        </is>
-      </c>
-      <c r="C73" s="22" t="inlineStr">
-        <is>
-          <t>ASCS とデータベース クラスタを単一/同一の VM に結合しない</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4194,13 +4193,13 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="I73" s="16" t="n"/>
@@ -4208,7 +4207,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>aff6691b-4935-4ada-9222-3ece81b12318</t>
+          <t>5eb2ec14-eeaa-4359-8829-e2edb2173676</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4219,34 +4218,34 @@
     <row r="74" ht="16.5" customHeight="1" s="13">
       <c r="A74" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B74" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>フローティングIPがロードバランサーで有効になっていることを確認します</t>
+          <t>Azure Key Vault を使用してシークレットと資格情報を格納する</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
       <c r="E74" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>高い</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="I74" s="16" t="n"/>
@@ -4254,7 +4253,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>1a541741-5833-4fb4-ae3c-2df743165c3a</t>
+          <t>ce9bd3bb-0cdb-43b5-9eb2-ec14eeaa3592</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4265,17 +4264,17 @@
     <row r="75" ht="16.5" customHeight="1" s="13">
       <c r="A75" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B75" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>同じ可用性セット内で異なる役割のサーバーを混在させないでください。中央サービス VM、データベース VM、アプリケーション VM を独自の可用性セットに保持する</t>
+          <t>承認されていない変更から保護するために、デプロイが成功した後に Azure リソースをロックすることをお勧めします。</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4286,13 +4285,13 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="I75" s="16" t="n"/>
@@ -4300,7 +4299,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>cbe05bbe-209d-4490-ba47-778424d11678</t>
+          <t>829e2edb-2173-4676-aff6-691b4935ada4</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4311,17 +4310,17 @@
     <row r="76" ht="16.5" customHeight="1" s="13">
       <c r="A76" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B76" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>SAP SID ごとに 1 つの近接通信配置グループを使用します。グループがアベイラビリティーゾーンまたは Azure リージョンにまたがっていない</t>
+          <t>論理的な削除ポリシーと消去ポリシーを有効にして Azure Key Vault をプロビジョニングし、削除されたオブジェクトの保持保護を有効にします。</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4332,13 +4331,13 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I76" s="16" t="n"/>
@@ -4346,7 +4345,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>5d2fa56c-56ad-4484-88fe-72734c486ba2</t>
+          <t>2223ece8-1b12-4318-8a54-17415833fb4a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4357,17 +4356,17 @@
     <row r="77" ht="16.5" customHeight="1" s="13">
       <c r="A77" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B77" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Azure では現在、同じ Linux ペースメーカー クラスター内での ASCS と db HA の組み合わせはサポートされていません。それらを個々のクラスターに分離します。ただし、最大 5 つの複数の中央サービス クラスターを 1 組の VM に結合できます。</t>
+          <t>既存の要件、規制およびコンプライアンス制御 (内部/外部) に基づいて、必要な Azure ポリシーと Azure RBAC ロールを決定します</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4378,13 +4377,13 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I77" s="16" t="n"/>
@@ -4392,7 +4391,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>80dc0591-cf65-4de8-b130-9cccd579266b</t>
+          <t>e3c2df74-3165-4c3a-abe0-5bbe209d490d</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4403,17 +4402,17 @@
     <row r="78" ht="16.5" customHeight="1" s="13">
       <c r="A78" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B78" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>ASCS および DB クラスタの前で標準ロード バランサー SKU を使用する</t>
+          <t>Microsoft Defender for Cloud Standard for SAP を有効にする場合は、エンドポイント保護をインストールするポリシーから SAP データベース サーバーを除外してください。</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4424,13 +4423,13 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I78" s="16" t="n"/>
@@ -4438,7 +4437,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>cca275fa-a1ab-4fe9-b55d-04c3c4919cb1</t>
+          <t>a4777842-4d11-4678-9d2f-a56c56ad4840</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4449,17 +4448,17 @@
     <row r="79" ht="16.5" customHeight="1" s="13">
       <c r="A79" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B79" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>HA ペアの両方の VM を可用性セットにデプロイするか、アベイラビリティーゾーンが同じサイズで同じストレージ構成を持つ必要があります。</t>
+          <t>SAP 管理者のカスタム ロールにジャストインタイム アクセスを委任します。</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4470,13 +4469,13 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/itshowcase/implementing-a-zero-trust-security-model-at-microsoft</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I79" s="16" t="n"/>
@@ -4484,7 +4483,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>b3d1325a-e124-4ba3-9df6-85eddce9bd3b</t>
+          <t>8fe72734-c486-4ba2-a0dc-0591cf65de8e</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4495,17 +4494,17 @@
     <row r="80" ht="16.5" customHeight="1" s="13">
       <c r="A80" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ・データベース・レプリケーション・テクノロジーを使用して、HA ペアのデータベースを同期する必要があります。</t>
+          <t>サードパーティのセキュリティ製品を、DIAG (SAP GUI)、RFC、および SPNEGO for HTTPS 用のセキュアネットワーク通信 (SNC) と統合することにより、転送中のデータを暗号化します。</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4516,13 +4515,13 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I80" s="16" t="n"/>
@@ -4530,7 +4529,7 @@
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>b0cdb3b5-5eb2-4ec1-9eea-a3592829e2ed</t>
+          <t>1309cccd-5792-466b-aca2-75faa1abfe9d</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4541,17 +4540,17 @@
     <row r="81" ht="16.5" customHeight="1" s="13">
       <c r="A81" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B81" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>運用データベースのポイント イン タイム リカバリを、RTO を満たす任意の時点および時間枠で実行します。ポイント・イン・タイム・リカバリには、通常、DBMSレイヤー上またはSAP経由でデータを削除するオペレータ・エラーが含まれます。</t>
+          <t>SAML 2.0 を搭載した Azure Active Directory (Azure AD) は、SAP NetWeaver、SAP HANA、SAP Cloud Platform などのさまざまな SAP アプリケーションやプラットフォームに SSO を提供することもできます。</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4562,13 +4561,13 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G81" s="22" t="n"/>
       <c r="H81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="I81" s="16" t="n"/>
@@ -4576,7 +4575,7 @@
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>b2173676-aff6-4691-a493-5ada42223ece</t>
+          <t>55d04c3c-4919-4cb1-a3d1-325ae124ba34</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4587,34 +4586,42 @@
     <row r="82" ht="16.5" customHeight="1" s="13">
       <c r="A82" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B82" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>プライマリ仮想ネットワーク (VNet) の CIDR は、DR サイトの Vnet の CIDR と競合したり重複したりしてはなりません。</t>
+          <t>SAP データベースへの攻撃につながる可能性のある脆弱性を根絶するために、オペレーティング システムを強化してください。</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
-      <c r="E82" s="22" t="n"/>
+      <c r="E82" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G82" s="22" t="n"/>
-      <c r="H82" s="16" t="n"/>
+      <c r="H82" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I82" s="16" t="n"/>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>01b12318-1a54-4174-8583-3fb4ae3c2df7</t>
+          <t>df685edd-ce9b-4d3b-a0cd-b3b55eb2ec14</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4625,34 +4632,42 @@
     <row r="83" ht="15.75" customHeight="1" s="13">
       <c r="A83" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B83" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Site Recovery を使用して、アプリケーション サーバーを DR サイトにレプリケートします。Site Recovery は、中央サービスのクラスター VM を DR サイトにレプリケートする際にも役立ちます。DR を呼び出すときは、DR サイトで Linux ペースメーカー クラスターを再構成する必要があります (たとえば、VIP または SBD の置き換え、corosync.conf の実行など)。</t>
+          <t>プリンシパル暗号化機能には既定で Microsoft マネージド キーを使用し、必要に応じてカスタマー マネージド キーを使用します。</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
-      <c r="E83" s="22" t="n"/>
+      <c r="E83" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G83" s="22" t="n"/>
-      <c r="H83" s="16" t="n"/>
+      <c r="H83" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I83" s="16" t="n"/>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>43165c3a-cbe0-45bb-b209-d490da477784</t>
+          <t>eeaa3592-829e-42ed-a217-3676aff6691b</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4663,34 +4678,42 @@
     <row r="84" ht="16.5" customHeight="1" s="13">
       <c r="A84" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B84" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>秘密</t>
         </is>
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>ネイティブ データベース レプリケーションは、Azure サイトの回復ではなく、DR サイトにデータを同期するために使用する必要があります。</t>
+          <t>リージョンごとの環境ごとにアプリケーションごとに Azure Key Vault を使用します。</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
-      <c r="E84" s="22" t="n"/>
+      <c r="E84" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G84" s="22" t="n"/>
-      <c r="H84" s="16" t="n"/>
+      <c r="H84" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I84" s="16" t="n"/>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>24d11678-5d2f-4a56-a56a-d48408fe7273</t>
+          <t>4935ada4-2223-4ece-a1b1-23181a541741</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4701,34 +4724,42 @@
     <row r="85" ht="16.5" customHeight="1" s="13">
       <c r="A85" s="22" t="inlineStr">
         <is>
-          <t>ビジネス継続性と災害復旧</t>
+          <t>セキュリティ、ガバナンス、コンプライアンス</t>
         </is>
       </c>
       <c r="B85" s="22" t="inlineStr">
         <is>
+          <t>秘密</t>
+        </is>
+      </c>
+      <c r="C85" s="22" t="inlineStr">
+        <is>
           <t>&amp;nbsp</t>
         </is>
       </c>
-      <c r="C85" s="22" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
-        </is>
-      </c>
       <c r="D85" s="22" t="n"/>
-      <c r="E85" s="22" t="n"/>
+      <c r="E85" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G85" s="22" t="n"/>
-      <c r="H85" s="16" t="n"/>
+      <c r="H85" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+        </is>
+      </c>
       <c r="I85" s="16" t="n"/>
       <c r="J85" s="23" t="n"/>
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4c486ba2-80dc-4059-8cf6-5de8e1309ccc</t>
+          <t>5833fb4a-e3c2-4df7-9316-5c3acbe05bbe</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4753,10 +4784,14 @@
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
-      <c r="E86" s="22" t="n"/>
+      <c r="E86" s="22" t="inlineStr">
+        <is>
+          <t>中程度</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="G86" s="22" t="n"/>
@@ -4777,34 +4812,46 @@
     <row r="87" ht="16.5" customHeight="1" s="13">
       <c r="A87" s="22" t="inlineStr">
         <is>
-          <t>チェクリストたち</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
-      <c r="E87" s="22" t="n"/>
+      <c r="E87" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G87" s="22" t="n"/>
-      <c r="H87" s="16" t="n"/>
-      <c r="I87" s="16" t="n"/>
+      <c r="H87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I87" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J87" s="23" t="n"/>
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>c4919cb1-b3d1-4325-ae12-4ba34df685ed</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -4815,34 +4862,46 @@
     <row r="88" ht="16.5" customHeight="1" s="13">
       <c r="A88" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>樹液</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
-      <c r="E88" s="22" t="n"/>
+      <c r="E88" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G88" s="22" t="n"/>
-      <c r="H88" s="16" t="n"/>
-      <c r="I88" s="16" t="n"/>
+      <c r="H88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I88" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+        </is>
+      </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>dce9bd3b-b0cd-4b3b-95eb-2ec14eeaa359</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -4853,38 +4912,46 @@
     <row r="89" ht="16.5" customHeight="1" s="13">
       <c r="A89" s="22" t="inlineStr">
         <is>
-          <t>計算する</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B89" s="22" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>正しい VM SKU とゾーンのクォータ要求を行う</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
       <c r="E89" s="22" t="inlineStr">
         <is>
-          <t>中程度</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>Not verified</t>
         </is>
       </c>
       <c r="G89" s="22" t="n"/>
-      <c r="H89" s="16" t="n"/>
-      <c r="I89" s="16" t="n"/>
+      <c r="H89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+        </is>
+      </c>
+      <c r="I89" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>2829e2ed-b217-4367-9aff-6691b4935ada</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -4905,7 +4972,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -4927,14 +4994,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -4955,7 +5022,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -4977,14 +5044,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5005,7 +5072,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5027,14 +5094,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5055,7 +5122,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5072,7 +5139,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5084,7 +5151,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5105,7 +5172,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5122,7 +5189,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5134,7 +5201,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5155,7 +5222,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5177,14 +5244,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5205,7 +5272,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5222,19 +5289,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5250,12 +5317,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5272,19 +5339,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5305,7 +5372,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5322,7 +5389,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5334,7 +5401,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5355,7 +5422,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5372,19 +5439,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5405,7 +5472,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5422,19 +5489,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5455,7 +5522,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5477,14 +5544,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5505,7 +5572,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5534,7 +5601,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5555,7 +5622,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5572,7 +5639,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5584,7 +5651,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5605,7 +5672,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5622,7 +5689,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5634,7 +5701,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5655,13 +5722,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5672,19 +5739,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5700,18 +5767,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5722,19 +5789,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5750,12 +5817,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5772,19 +5839,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -5800,12 +5867,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -5822,19 +5889,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -5855,7 +5922,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -5872,7 +5939,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -5884,7 +5951,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -5905,7 +5972,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -5922,7 +5989,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -5934,7 +6001,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -5955,7 +6022,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -5977,14 +6044,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6005,7 +6072,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6027,14 +6094,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6055,7 +6122,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6077,14 +6144,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6100,12 +6167,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6125,12 +6192,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6151,7 +6222,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6168,19 +6239,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6201,7 +6267,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6218,7 +6284,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6230,7 +6296,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6246,12 +6312,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6268,19 +6334,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6301,7 +6367,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6318,15 +6384,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6347,7 +6417,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6364,14 +6434,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6392,7 +6462,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6409,7 +6479,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6417,7 +6487,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6428,17 +6498,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6455,19 +6525,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6488,7 +6554,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6503,13 +6569,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6530,7 +6604,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6545,21 +6619,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6580,7 +6646,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6609,7 +6675,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6630,7 +6696,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6647,19 +6713,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6680,7 +6746,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6697,19 +6763,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6730,7 +6796,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6747,19 +6813,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6780,7 +6846,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -6797,19 +6863,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -6830,7 +6896,7 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
@@ -6847,14 +6913,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -6875,13 +6946,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -6892,14 +6963,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -6920,7 +6991,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -6937,14 +7008,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -6965,7 +7036,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -6982,14 +7053,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7010,7 +7081,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7027,14 +7098,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7055,7 +7126,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7072,14 +7143,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7100,7 +7171,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7117,14 +7188,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7145,7 +7216,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7162,14 +7233,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7190,7 +7261,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7207,14 +7278,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7235,7 +7306,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7252,14 +7323,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7280,7 +7351,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7297,14 +7368,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7315,23 +7386,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7342,14 +7413,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7360,17 +7431,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7387,14 +7458,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7415,13 +7486,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7432,14 +7503,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7460,7 +7531,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7477,14 +7548,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7505,7 +7576,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7529,7 +7600,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7550,7 +7621,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7574,7 +7645,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7595,7 +7666,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7619,7 +7690,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7640,7 +7711,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7657,14 +7728,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7685,7 +7756,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7709,7 +7780,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7730,7 +7801,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7747,14 +7818,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7775,7 +7846,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -7799,7 +7870,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -7820,7 +7891,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -7837,14 +7908,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -7860,18 +7931,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -7882,14 +7953,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -7905,12 +7976,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -7927,14 +7998,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -7955,13 +8026,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7979,7 +8050,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8000,7 +8071,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8017,14 +8088,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8045,7 +8116,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8069,7 +8140,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8090,13 +8161,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8114,7 +8185,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8135,7 +8206,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8159,7 +8230,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8180,13 +8251,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8204,7 +8275,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8225,7 +8296,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8249,7 +8320,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8270,7 +8341,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8294,7 +8365,7 @@
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8315,7 +8386,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8339,7 +8410,7 @@
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8355,12 +8426,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8377,14 +8448,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8400,12 +8471,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8422,14 +8493,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8450,7 +8521,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8467,14 +8538,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8495,7 +8566,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8512,14 +8583,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8540,7 +8611,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8557,14 +8628,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8585,7 +8656,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8602,14 +8673,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8630,7 +8701,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8647,14 +8718,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8675,7 +8746,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8699,7 +8770,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8720,7 +8791,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8737,14 +8808,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8753,360 +8824,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -10664,7 +11455,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A7:I168"/>
-  <conditionalFormatting sqref="H87:I308 A87:E297 G87:G297 I8:J57 J87:P297 I59:J86 L59:P86 L8:P57">
+  <conditionalFormatting sqref="A87:E297 G87:G297 H87:I308 I8:J57 I59:J86 J87:P297 L8:P57 L59:P86">
     <cfRule type="expression" priority="57" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10748,7 +11539,7 @@
       <formula>"Open"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A44:E57 A59:E86 G59:H86 G8:H57">
+  <conditionalFormatting sqref="A44:E57 A59:E86 G8:H57 G59:H86">
     <cfRule type="expression" priority="9" dxfId="1">
       <formula>($A8&lt;&gt;$A9)</formula>
     </cfRule>
@@ -10804,14 +11595,44 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+  <dataValidations count="13">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
-    <dataValidation sqref="F8:F90" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F87" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -10897,12 +11718,12 @@
       </c>
       <c r="B2" s="11" t="inlineStr">
         <is>
-          <t>未検証</t>
+          <t>未確認</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>アイデンティティとアクセス</t>
+          <t>ID とアクセス</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
